--- a/sov_extract/Data/brightness_analysis_15_01.xlsx
+++ b/sov_extract/Data/brightness_analysis_15_01.xlsx
@@ -1904,7 +1904,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-01-15 14:23:54</t>
+          <t>2025-01-15 21:39:13</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -3400,7 +3400,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-01-15 14:23:54</t>
+          <t>2025-01-15 21:39:13</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -4896,7 +4896,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-01-15 14:23:54</t>
+          <t>2025-01-15 21:39:13</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -6392,7 +6392,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-01-15 14:23:54</t>
+          <t>2025-01-15 21:39:13</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -7888,7 +7888,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-01-15 14:23:54</t>
+          <t>2025-01-15 21:39:13</t>
         </is>
       </c>
       <c r="B36" t="n">
